--- a/MONC.MI.xlsx
+++ b/MONC.MI.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167DA2F4-FB27-4600-874A-C0654F5F1EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0DEB85-3EA8-4709-B3E0-D27D62D37BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{677D2CEA-1865-4992-A56B-DB953B0C9171}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{677D2CEA-1865-4992-A56B-DB953B0C9171}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Quarter" sheetId="3" r:id="rId2"/>
+    <sheet name="Model" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>Moncler</t>
   </si>
@@ -269,15 +270,86 @@
   <si>
     <t>https://quartr.com/insights/company-research/moncler-from-the-mountains-to-the-runway?utm_source=newsletter&amp;utm_medium=social&amp;utm_campaign=edge_53</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Moncler Stores Asia</t>
+  </si>
+  <si>
+    <t>Moncler Stores EMEA</t>
+  </si>
+  <si>
+    <t>Moncler Stores Emericas</t>
+  </si>
+  <si>
+    <t>Wholesale Stores</t>
+  </si>
+  <si>
+    <t>Total Moncler Stores</t>
+  </si>
+  <si>
+    <t>Asia Moncler</t>
+  </si>
+  <si>
+    <t>EMEA Moncler</t>
+  </si>
+  <si>
+    <t>Americas Moncler</t>
+  </si>
+  <si>
+    <t>Stone Island Asia</t>
+  </si>
+  <si>
+    <t>Stone Island EMEA</t>
+  </si>
+  <si>
+    <t>Stone Island Americas</t>
+  </si>
+  <si>
+    <t>Stone Island Stores Asia</t>
+  </si>
+  <si>
+    <t>Stone Island Stores EMEA</t>
+  </si>
+  <si>
+    <t>Stone Island Stores Emericas</t>
+  </si>
+  <si>
+    <t>Total Stone Island Stores</t>
+  </si>
+  <si>
+    <t>Total Stores</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.0;[Red]#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -467,7 +539,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -503,6 +575,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -839,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53688737-80D3-4C04-BAFD-DFD665FDE780}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="L8" sqref="L8:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,12 +931,12 @@
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -867,7 +947,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>9</v>
       </c>
@@ -875,10 +955,10 @@
         <v>270.43838299999999</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -890,7 +970,7 @@
         <v>18443.897720599998</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -901,10 +981,10 @@
         <v>803.40099999999995</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>4</v>
       </c>
@@ -913,10 +993,10 @@
         <v>851.41200000000003</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
@@ -933,37 +1013,46 @@
         <v>18491.908720599997</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="27">
+        <v>0.871</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="C9" s="28">
+        <v>0.129</v>
+      </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>76</v>
       </c>
@@ -977,14 +1066,1957 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4399E7-D2CC-4706-93A7-AC71219BBB03}">
-  <dimension ref="A1:BI405"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7E0587-FA20-4F4F-A4B2-08187505ABA6}">
+  <dimension ref="A1:Z69"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="29">
+        <v>135</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29">
+        <v>142</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="29">
+        <v>95</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29">
+        <v>96</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="29">
+        <v>45</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29">
+        <v>46</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="29">
+        <v>56</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29">
+        <v>55</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="29">
+        <f t="shared" ref="C7:F7" si="0">+C6+SUM(C3:C5)</f>
+        <v>331</v>
+      </c>
+      <c r="D7" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="29">
+        <f>+G6+SUM(G3:G5)</f>
+        <v>339</v>
+      </c>
+      <c r="H7" s="29">
+        <f t="shared" ref="H7:J7" si="1">+H6+SUM(H3:H5)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="29">
+        <v>50</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29">
+        <v>56</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="29">
+        <v>26</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29">
+        <v>27</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="29">
+        <v>7</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29">
+        <v>7</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="29">
+        <v>13</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29">
+        <v>11</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="29">
+        <f t="shared" ref="C12:F12" si="2">+SUM(C8:C11)</f>
+        <v>96</v>
+      </c>
+      <c r="D12" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="29">
+        <f>+SUM(G8:G11)</f>
+        <v>101</v>
+      </c>
+      <c r="H12" s="29">
+        <f t="shared" ref="H12:L12" si="3">+SUM(H8:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="30">
+        <f t="shared" ref="C13:F13" si="4">+C12+C7</f>
+        <v>427</v>
+      </c>
+      <c r="D13" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="30">
+        <f>+G12+G7</f>
+        <v>440</v>
+      </c>
+      <c r="H13" s="30">
+        <f t="shared" ref="H13:J13" si="5">+H12+H7</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="17">
+        <v>362.63</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17">
+        <v>380.75099999999998</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="17">
+        <v>245.94499999999999</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17">
+        <v>244.292</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="17">
+        <v>96.409000000000006</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17">
+        <v>96.715999999999994</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="17">
+        <v>704.98400000000004</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17">
+        <v>721.75900000000001</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="17">
+        <v>27.384</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17">
+        <v>31.210999999999999</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="17">
+        <v>77.674999999999997</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17">
+        <v>69.444000000000003</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="17">
+        <v>7.9660000000000002</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17">
+        <v>6.6079999999999997</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="17">
+        <v>113.024</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17">
+        <v>107.26300000000001</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="18">
+        <f>+C22+C18</f>
+        <v>818.00800000000004</v>
+      </c>
+      <c r="D23" s="18">
+        <f t="shared" ref="D23:J23" si="6">+D22+D18</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="18">
+        <f t="shared" si="6"/>
+        <v>829.02200000000005</v>
+      </c>
+      <c r="H23" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+    </row>
+    <row r="33" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+    </row>
+    <row r="34" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+    </row>
+    <row r="35" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+    </row>
+    <row r="36" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+    </row>
+    <row r="37" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+    </row>
+    <row r="38" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+    </row>
+    <row r="39" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+    </row>
+    <row r="40" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+    </row>
+    <row r="41" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+    </row>
+    <row r="42" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+    </row>
+    <row r="43" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+    </row>
+    <row r="44" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+    </row>
+    <row r="45" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+    </row>
+    <row r="46" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+    </row>
+    <row r="47" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+    </row>
+    <row r="48" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="29"/>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="29"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29"/>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="29"/>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="29"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="29"/>
+      <c r="Z54" s="29"/>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17"/>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="17"/>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="17"/>
+    </row>
+    <row r="65" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="17"/>
+    </row>
+    <row r="66" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
+    </row>
+    <row r="67" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
+    </row>
+    <row r="68" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="17"/>
+    </row>
+    <row r="69" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="17"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E175168B-C7B1-4827-A694-306E4ED42C43}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4399E7-D2CC-4706-93A7-AC71219BBB03}">
+  <dimension ref="A1:BI405"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,7 +3968,10 @@
         <v>401.60899999999998</v>
       </c>
       <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="Q22" s="17">
+        <f>+O21/O23</f>
+        <v>0.87082057972468929</v>
+      </c>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>

--- a/MONC.MI.xlsx
+++ b/MONC.MI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDB019C-7867-4062-98E8-CE795265113D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F967E6BA-8F95-4D63-A391-96C263561CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{677D2CEA-1865-4992-A56B-DB953B0C9171}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{677D2CEA-1865-4992-A56B-DB953B0C9171}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -939,7 +939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53688737-80D3-4C04-BAFD-DFD665FDE780}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1094,11 +1094,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7E0587-FA20-4F4F-A4B2-08187505ABA6}">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1155,7 +1155,9 @@
       <c r="H3" s="22">
         <v>144</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="22">
+        <v>145</v>
+      </c>
       <c r="J3" s="22"/>
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
@@ -1190,7 +1192,9 @@
       <c r="H4" s="22">
         <v>96</v>
       </c>
-      <c r="I4" s="22"/>
+      <c r="I4" s="22">
+        <v>98</v>
+      </c>
       <c r="J4" s="22"/>
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
@@ -1225,7 +1229,9 @@
       <c r="H5" s="22">
         <v>47</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="22">
+        <v>51</v>
+      </c>
       <c r="J5" s="22"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
@@ -1260,7 +1266,10 @@
       <c r="H6" s="22">
         <v>287</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="22">
+        <f>+SUM(I3:I5)</f>
+        <v>294</v>
+      </c>
       <c r="J6" s="22"/>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
@@ -1308,7 +1317,7 @@
       </c>
       <c r="I7" s="22">
         <f t="shared" ref="I7:J7" si="1">+I6+SUM(I3:I5)</f>
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="J7" s="22">
         <f t="shared" si="1"/>
@@ -1347,7 +1356,9 @@
       <c r="H8" s="22">
         <v>55</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="22">
+        <v>54</v>
+      </c>
       <c r="J8" s="22"/>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
@@ -1382,7 +1393,9 @@
       <c r="H9" s="22">
         <v>29</v>
       </c>
-      <c r="I9" s="22"/>
+      <c r="I9" s="22">
+        <v>31</v>
+      </c>
       <c r="J9" s="22"/>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
@@ -1417,7 +1430,9 @@
       <c r="H10" s="22">
         <v>7</v>
       </c>
-      <c r="I10" s="22"/>
+      <c r="I10" s="22">
+        <v>7</v>
+      </c>
       <c r="J10" s="22"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
@@ -1452,7 +1467,10 @@
       <c r="H11" s="22">
         <v>91</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="22">
+        <f>+SUM(I8:I10)</f>
+        <v>92</v>
+      </c>
       <c r="J11" s="22"/>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
@@ -1500,7 +1518,7 @@
       </c>
       <c r="I12" s="22">
         <f t="shared" ref="I12:J12" si="3">+SUM(I8:I11)</f>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J12" s="22">
         <f t="shared" si="3"/>
@@ -1552,7 +1570,7 @@
       </c>
       <c r="I13" s="24">
         <f t="shared" ref="I13:J13" si="5">+I12+I7</f>
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="J13" s="24">
         <f t="shared" si="5"/>
@@ -1610,12 +1628,19 @@
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="F15" s="23">
+        <v>237.8</v>
+      </c>
       <c r="G15" s="23">
         <v>380.75099999999998</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="H15" s="23">
+        <f>+Model!I16-Quarter!G15</f>
+        <v>197.26400000000001</v>
+      </c>
+      <c r="I15" s="23">
+        <v>226.9</v>
+      </c>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
@@ -1643,12 +1668,19 @@
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="F16" s="23">
+        <v>222.8</v>
+      </c>
       <c r="G16" s="23">
         <v>244.292</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="H16" s="23">
+        <f>+Model!I17-Quarter!G16</f>
+        <v>244.405</v>
+      </c>
+      <c r="I16" s="23">
+        <v>215.5</v>
+      </c>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
@@ -1676,12 +1708,19 @@
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="F17" s="23">
+        <v>71.400000000000006</v>
+      </c>
       <c r="G17" s="23">
         <v>96.715999999999994</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="H17" s="23">
+        <f>+Model!I18-Quarter!G17</f>
+        <v>62.237000000000009</v>
+      </c>
+      <c r="I17" s="23">
+        <v>71.8</v>
+      </c>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
@@ -1709,12 +1748,21 @@
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="F18" s="23">
+        <f>+SUM(F15:F17)</f>
+        <v>532</v>
+      </c>
       <c r="G18" s="23">
         <v>721.75900000000001</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="H18" s="23">
+        <f>+SUM(H15:H17)</f>
+        <v>503.90600000000001</v>
+      </c>
+      <c r="I18" s="23">
+        <f>+SUM(I15:I17)</f>
+        <v>514.19999999999993</v>
+      </c>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
@@ -1742,12 +1790,16 @@
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="F19" s="23">
+        <v>21.4</v>
+      </c>
       <c r="G19" s="23">
         <v>31.210999999999999</v>
       </c>
       <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="I19" s="23">
+        <v>21.9</v>
+      </c>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
@@ -1775,12 +1827,16 @@
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="F20" s="23">
+        <v>75</v>
+      </c>
       <c r="G20" s="23">
         <v>69.444000000000003</v>
       </c>
       <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="I20" s="23">
+        <v>72.900000000000006</v>
+      </c>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
@@ -1808,12 +1864,16 @@
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="F21" s="23">
+        <v>7.1</v>
+      </c>
       <c r="G21" s="23">
         <v>6.6079999999999997</v>
       </c>
       <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
+      <c r="I21" s="23">
+        <v>6.6</v>
+      </c>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
@@ -1841,12 +1901,21 @@
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="F22" s="23">
+        <f>+SUM(F19:F21)</f>
+        <v>103.5</v>
+      </c>
       <c r="G22" s="23">
         <v>107.26300000000001</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+      <c r="H22" s="23">
+        <f>+Model!I22-Quarter!G22</f>
+        <v>79.436000000000007</v>
+      </c>
+      <c r="I22" s="23">
+        <f>+SUM(I19:I21)</f>
+        <v>101.4</v>
+      </c>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
@@ -1883,7 +1952,7 @@
       </c>
       <c r="F23" s="25">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>635.5</v>
       </c>
       <c r="G23" s="25">
         <f t="shared" si="6"/>
@@ -1891,11 +1960,11 @@
       </c>
       <c r="H23" s="25">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>583.34199999999998</v>
       </c>
       <c r="I23" s="25">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>615.59999999999991</v>
       </c>
       <c r="J23" s="25">
         <f t="shared" si="6"/>
@@ -3052,7 +3121,7 @@
   <dimension ref="A1:BK405"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
